--- a/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\CienciasSociales\seguimiento\ProduccionDigital\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21713" windowHeight="9711"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -220,9 +218,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +273,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -312,24 +326,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -349,35 +365,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -436,7 +457,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,7 +492,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -648,7 +669,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -660,28 +681,28 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G27" sqref="G27"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.53125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.3984375" style="1" customWidth="1"/>
-    <col min="5" max="8" width="12.06640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.6640625" style="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.100000000000001" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:15" ht="18">
+      <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="21.15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="22">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -724,547 +745,598 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="15.85" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:15" ht="15">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="14">
         <v>42087.62777777778</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="14">
         <v>42087.663194444445</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A5" s="13" t="s">
+      <c r="H4" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A6" s="13" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A7" s="13" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="13" t="s">
+      <c r="C7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="13" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="13" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="13" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="13" t="s">
+      <c r="C11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="13" t="s">
+      <c r="C12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A14" s="13" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A15" s="13" t="s">
+      <c r="C14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A16" s="13" t="s">
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="13" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="10"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="13" t="s">
+      <c r="C17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="10"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="13" t="s">
+      <c r="C18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="10"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" s="13" t="s">
+      <c r="C19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="10"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="13" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="10"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="13" t="s">
+      <c r="C21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="13" t="s">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" ht="24">
+      <c r="A23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="10"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="13" t="s">
+      <c r="C23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="10"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="13" t="s">
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="10"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A26" s="13" t="s">
+      <c r="C25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="10"/>
+      <c r="C26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="16">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="L4:L26"/>
     <mergeCell ref="M4:M26"/>
     <mergeCell ref="E4:E26"/>
     <mergeCell ref="F4:F26"/>
     <mergeCell ref="G4:G26"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glorita\Documents\GitHub\CienciasSociales\seguimiento\ProduccionDigital\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="9720"/>
   </bookViews>
@@ -11,11 +16,11 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -383,17 +388,17 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -669,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -681,20 +686,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
-    <col min="5" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
@@ -702,7 +708,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="22">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -745,34 +751,34 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="15">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="16">
         <v>42087.62777777778</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="16">
         <v>42087.663194444445</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="14"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -785,19 +791,19 @@
       <c r="D5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="16">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="14"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -810,19 +816,19 @@
       <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="16">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="L6" s="15"/>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -835,19 +841,19 @@
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="16">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -860,19 +866,19 @@
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="16">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="L8" s="15"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
@@ -885,19 +891,19 @@
       <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="16">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -910,19 +916,19 @@
       <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="16">
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -935,19 +941,19 @@
       <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="16">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
@@ -960,19 +966,19 @@
       <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="16">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
@@ -985,19 +991,19 @@
       <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="16">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -1010,19 +1016,19 @@
       <c r="D14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="16">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
@@ -1035,19 +1041,19 @@
       <c r="D15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="16">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="14"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="L15" s="15"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
@@ -1060,19 +1066,19 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="16">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="14"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="L16" s="15"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1085,19 +1091,19 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="16">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="14"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="L17" s="15"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
@@ -1110,19 +1116,19 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="16">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="14"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="L18" s="15"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
@@ -1135,19 +1141,19 @@
       <c r="D19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="16">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="14"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="L19" s="15"/>
+      <c r="M19" s="16"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
@@ -1160,19 +1166,19 @@
       <c r="D20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="16">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="14"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>18</v>
       </c>
@@ -1185,19 +1191,19 @@
       <c r="D21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="16">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="14"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
+    </row>
+    <row r="22" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
@@ -1210,19 +1216,19 @@
       <c r="D22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="16">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="14"/>
-    </row>
-    <row r="23" spans="1:13" ht="24">
+      <c r="L22" s="15"/>
+      <c r="M22" s="16"/>
+    </row>
+    <row r="23" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>20</v>
       </c>
@@ -1235,19 +1241,19 @@
       <c r="D23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="16">
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="14"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="L23" s="15"/>
+      <c r="M23" s="16"/>
+    </row>
+    <row r="24" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>21</v>
       </c>
@@ -1260,19 +1266,19 @@
       <c r="D24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="16">
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="14"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="L24" s="15"/>
+      <c r="M24" s="16"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>22</v>
       </c>
@@ -1285,19 +1291,19 @@
       <c r="D25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="16">
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="14"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="L25" s="15"/>
+      <c r="M25" s="16"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>32</v>
       </c>
@@ -1310,17 +1316,17 @@
       <c r="D26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="16">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="14"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
@@ -697,7 +697,8 @@
     <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.85546875" style="1"/>
+    <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
@@ -772,7 +773,7 @@
       <c r="H4" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="13"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="15"/>
@@ -797,7 +798,9 @@
       <c r="H5" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="13">
+        <v>42100.460416666669</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="15"/>
@@ -822,7 +825,9 @@
       <c r="H6" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="13">
+        <v>42100.460416666669</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="15"/>
@@ -847,7 +852,9 @@
       <c r="H7" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="13">
+        <v>42100.460416666669</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="15"/>
@@ -872,7 +879,9 @@
       <c r="H8" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="13">
+        <v>42100.460416666669</v>
+      </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="15"/>
@@ -897,7 +906,9 @@
       <c r="H9" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="13">
+        <v>42100.460416666669</v>
+      </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="15"/>
@@ -922,7 +933,9 @@
       <c r="H10" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="13">
+        <v>42100.460416666669</v>
+      </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="15"/>
@@ -947,7 +960,9 @@
       <c r="H11" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="13">
+        <v>42100.460416666669</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="15"/>
@@ -972,7 +987,9 @@
       <c r="H12" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="13">
+        <v>42100.460416666669</v>
+      </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="15"/>
@@ -997,7 +1014,9 @@
       <c r="H13" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="13">
+        <v>42100.460416666669</v>
+      </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="15"/>
@@ -1022,7 +1041,9 @@
       <c r="H14" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="13">
+        <v>42100.460416666669</v>
+      </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="15"/>
@@ -1047,7 +1068,9 @@
       <c r="H15" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="13">
+        <v>42100.460416666669</v>
+      </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="15"/>
@@ -1072,7 +1095,9 @@
       <c r="H16" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="13">
+        <v>42100.460416666669</v>
+      </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="15"/>
@@ -1097,7 +1122,9 @@
       <c r="H17" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="13">
+        <v>42100.460416666669</v>
+      </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="15"/>
@@ -1122,7 +1149,9 @@
       <c r="H18" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I18" s="9"/>
+      <c r="I18" s="13">
+        <v>42100.460416666669</v>
+      </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="15"/>
@@ -1147,7 +1176,9 @@
       <c r="H19" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="13">
+        <v>42100.460416666669</v>
+      </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="15"/>
@@ -1172,7 +1203,9 @@
       <c r="H20" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="13">
+        <v>42100.460416666669</v>
+      </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="15"/>
@@ -1197,7 +1230,9 @@
       <c r="H21" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="13">
+        <v>42100.460416666669</v>
+      </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="15"/>
@@ -1222,7 +1257,9 @@
       <c r="H22" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="13">
+        <v>42100.460416666669</v>
+      </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="15"/>
@@ -1247,7 +1284,9 @@
       <c r="H23" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I23" s="9"/>
+      <c r="I23" s="13">
+        <v>42100.460416666669</v>
+      </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="15"/>
@@ -1272,7 +1311,9 @@
       <c r="H24" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I24" s="9"/>
+      <c r="I24" s="13">
+        <v>42100.460416666669</v>
+      </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="15"/>
@@ -1297,7 +1338,9 @@
       <c r="H25" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I25" s="9"/>
+      <c r="I25" s="13">
+        <v>42100.460416666669</v>
+      </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="15"/>
@@ -1322,7 +1365,9 @@
       <c r="H26" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I26" s="9"/>
+      <c r="I26" s="13">
+        <v>42100.460416666669</v>
+      </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="15"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
@@ -684,9 +684,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I4" sqref="I4"/>
+      <selection pane="topRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,8 +697,8 @@
     <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.85546875" style="1"/>
+    <col min="9" max="10" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
@@ -801,7 +801,9 @@
       <c r="I5" s="13">
         <v>42100.460416666669</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="13">
+        <v>42101.708333333336</v>
+      </c>
       <c r="K5" s="9"/>
       <c r="L5" s="15"/>
       <c r="M5" s="16"/>
@@ -828,7 +830,9 @@
       <c r="I6" s="13">
         <v>42100.460416666669</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="13">
+        <v>42101.729166666664</v>
+      </c>
       <c r="K6" s="9"/>
       <c r="L6" s="15"/>
       <c r="M6" s="16"/>
@@ -882,7 +886,9 @@
       <c r="I8" s="13">
         <v>42100.460416666669</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="13">
+        <v>42101.895833333336</v>
+      </c>
       <c r="K8" s="9"/>
       <c r="L8" s="15"/>
       <c r="M8" s="16"/>
@@ -936,7 +942,9 @@
       <c r="I10" s="13">
         <v>42100.460416666669</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="13">
+        <v>42101.909722222219</v>
+      </c>
       <c r="K10" s="9"/>
       <c r="L10" s="15"/>
       <c r="M10" s="16"/>
@@ -1071,7 +1079,9 @@
       <c r="I15" s="13">
         <v>42100.460416666669</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="13">
+        <v>42101.984027777777</v>
+      </c>
       <c r="K15" s="9"/>
       <c r="L15" s="15"/>
       <c r="M15" s="16"/>
@@ -1152,7 +1162,9 @@
       <c r="I18" s="13">
         <v>42100.460416666669</v>
       </c>
-      <c r="J18" s="9"/>
+      <c r="J18" s="13">
+        <v>42101.986111111109</v>
+      </c>
       <c r="K18" s="9"/>
       <c r="L18" s="15"/>
       <c r="M18" s="16"/>
@@ -1206,7 +1218,9 @@
       <c r="I20" s="13">
         <v>42100.460416666669</v>
       </c>
-      <c r="J20" s="9"/>
+      <c r="J20" s="13">
+        <v>42101.996527777781</v>
+      </c>
       <c r="K20" s="9"/>
       <c r="L20" s="15"/>
       <c r="M20" s="16"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
@@ -686,7 +686,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J26" sqref="J26"/>
+      <selection pane="topRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +971,9 @@
       <c r="I11" s="13">
         <v>42100.460416666669</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="13">
+        <v>42104.665277777778</v>
+      </c>
       <c r="K11" s="9"/>
       <c r="L11" s="15"/>
       <c r="M11" s="16"/>
@@ -998,7 +1000,9 @@
       <c r="I12" s="13">
         <v>42100.460416666669</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="13">
+        <v>42104.676388888889</v>
+      </c>
       <c r="K12" s="9"/>
       <c r="L12" s="15"/>
       <c r="M12" s="16"/>
@@ -1191,7 +1195,9 @@
       <c r="I19" s="13">
         <v>42100.460416666669</v>
       </c>
-      <c r="J19" s="9"/>
+      <c r="J19" s="13">
+        <v>42104.677083333336</v>
+      </c>
       <c r="K19" s="9"/>
       <c r="L19" s="15"/>
       <c r="M19" s="16"/>
@@ -1274,7 +1280,9 @@
       <c r="I22" s="13">
         <v>42100.460416666669</v>
       </c>
-      <c r="J22" s="9"/>
+      <c r="J22" s="13">
+        <v>42104.677083333336</v>
+      </c>
       <c r="K22" s="9"/>
       <c r="L22" s="15"/>
       <c r="M22" s="16"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
@@ -684,9 +684,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J21" sqref="J21"/>
+      <selection pane="topRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +773,9 @@
       <c r="H4" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="13">
+        <v>42111.645833333336</v>
+      </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="15"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
@@ -225,7 +225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +294,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -350,7 +358,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -399,6 +407,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="22" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -686,7 +697,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I5" sqref="I5"/>
+      <selection pane="topRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,8 +708,8 @@
     <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.85546875" style="1"/>
+    <col min="9" max="11" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
@@ -806,7 +817,9 @@
       <c r="J5" s="13">
         <v>42101.708333333336</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="13">
+        <v>42111.5</v>
+      </c>
       <c r="L5" s="15"/>
       <c r="M5" s="16"/>
     </row>
@@ -835,7 +848,9 @@
       <c r="J6" s="13">
         <v>42101.729166666664</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="13">
+        <v>42111.5</v>
+      </c>
       <c r="L6" s="15"/>
       <c r="M6" s="16"/>
     </row>
@@ -891,7 +906,9 @@
       <c r="J8" s="13">
         <v>42101.895833333336</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="13">
+        <v>42111.5</v>
+      </c>
       <c r="L8" s="15"/>
       <c r="M8" s="16"/>
     </row>
@@ -947,7 +964,9 @@
       <c r="J10" s="13">
         <v>42101.909722222219</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="13">
+        <v>42111.5</v>
+      </c>
       <c r="L10" s="15"/>
       <c r="M10" s="16"/>
     </row>
@@ -976,7 +995,9 @@
       <c r="J11" s="13">
         <v>42104.665277777778</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="17">
+        <v>42111.5</v>
+      </c>
       <c r="L11" s="15"/>
       <c r="M11" s="16"/>
     </row>
@@ -1005,7 +1026,9 @@
       <c r="J12" s="13">
         <v>42104.676388888889</v>
       </c>
-      <c r="K12" s="9"/>
+      <c r="K12" s="13">
+        <v>42111.5</v>
+      </c>
       <c r="L12" s="15"/>
       <c r="M12" s="16"/>
     </row>
@@ -1088,7 +1111,9 @@
       <c r="J15" s="13">
         <v>42101.984027777777</v>
       </c>
-      <c r="K15" s="9"/>
+      <c r="K15" s="13">
+        <v>42111.5</v>
+      </c>
       <c r="L15" s="15"/>
       <c r="M15" s="16"/>
     </row>
@@ -1171,7 +1196,9 @@
       <c r="J18" s="13">
         <v>42101.986111111109</v>
       </c>
-      <c r="K18" s="9"/>
+      <c r="K18" s="13">
+        <v>42111.5</v>
+      </c>
       <c r="L18" s="15"/>
       <c r="M18" s="16"/>
     </row>
@@ -1200,7 +1227,9 @@
       <c r="J19" s="13">
         <v>42104.677083333336</v>
       </c>
-      <c r="K19" s="9"/>
+      <c r="K19" s="13">
+        <v>42111.5</v>
+      </c>
       <c r="L19" s="15"/>
       <c r="M19" s="16"/>
     </row>
@@ -1229,7 +1258,9 @@
       <c r="J20" s="13">
         <v>42101.996527777781</v>
       </c>
-      <c r="K20" s="9"/>
+      <c r="K20" s="13">
+        <v>42111.5</v>
+      </c>
       <c r="L20" s="15"/>
       <c r="M20" s="16"/>
     </row>
@@ -1285,7 +1316,9 @@
       <c r="J22" s="13">
         <v>42104.677083333336</v>
       </c>
-      <c r="K22" s="9"/>
+      <c r="K22" s="13">
+        <v>42111.5</v>
+      </c>
       <c r="L22" s="15"/>
       <c r="M22" s="16"/>
     </row>
@@ -1407,7 +1440,7 @@
     <mergeCell ref="G4:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glorita\Documents\GitHub\CienciasSociales\seguimiento\ProduccionDigital\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="9720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22820" windowHeight="12860"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -399,6 +394,9 @@
     <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -407,9 +405,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="22" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -685,7 +680,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -700,19 +695,19 @@
       <selection pane="topRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="18">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
@@ -720,7 +715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="22">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -763,22 +758,22 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:15" ht="15">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="17">
         <v>42087.62777777778</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="17">
         <v>42087.663194444445</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="17" t="s">
         <v>62</v>
       </c>
       <c r="H4" s="13">
@@ -789,10 +784,10 @@
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -805,9 +800,9 @@
       <c r="D5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -820,10 +815,10 @@
       <c r="K5" s="13">
         <v>42111.5</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -836,9 +831,9 @@
       <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -851,10 +846,10 @@
       <c r="K6" s="13">
         <v>42111.5</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L6" s="16"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -867,9 +862,9 @@
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -878,10 +873,10 @@
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -894,9 +889,9 @@
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -909,10 +904,10 @@
       <c r="K8" s="13">
         <v>42111.5</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="16"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
@@ -925,9 +920,9 @@
       <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -936,10 +931,10 @@
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="16"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -952,9 +947,9 @@
       <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -967,10 +962,10 @@
       <c r="K10" s="13">
         <v>42111.5</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="16"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -983,9 +978,9 @@
       <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -995,13 +990,13 @@
       <c r="J11" s="13">
         <v>42104.665277777778</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="14">
         <v>42111.5</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="16"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
@@ -1014,9 +1009,9 @@
       <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -1029,10 +1024,10 @@
       <c r="K12" s="13">
         <v>42111.5</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="16"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L12" s="16"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
@@ -1045,9 +1040,9 @@
       <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -1056,10 +1051,10 @@
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="16"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -1072,9 +1067,9 @@
       <c r="D14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -1083,10 +1078,10 @@
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="16"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
@@ -1099,9 +1094,9 @@
       <c r="D15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -1114,10 +1109,10 @@
       <c r="K15" s="13">
         <v>42111.5</v>
       </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="16"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L15" s="16"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
@@ -1130,9 +1125,9 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -1141,10 +1136,10 @@
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L16" s="16"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1157,9 +1152,9 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -1168,10 +1163,10 @@
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="16"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L17" s="16"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
@@ -1184,9 +1179,9 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -1199,10 +1194,10 @@
       <c r="K18" s="13">
         <v>42111.5</v>
       </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="16"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L18" s="16"/>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
@@ -1215,9 +1210,9 @@
       <c r="D19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -1230,10 +1225,10 @@
       <c r="K19" s="13">
         <v>42111.5</v>
       </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="16"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L19" s="16"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
@@ -1246,9 +1241,9 @@
       <c r="D20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -1261,10 +1256,10 @@
       <c r="K20" s="13">
         <v>42111.5</v>
       </c>
-      <c r="L20" s="15"/>
-      <c r="M20" s="16"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L20" s="16"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="10" t="s">
         <v>18</v>
       </c>
@@ -1277,9 +1272,9 @@
       <c r="D21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -1288,10 +1283,10 @@
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="16"/>
-    </row>
-    <row r="22" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="L21" s="16"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
@@ -1304,9 +1299,9 @@
       <c r="D22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -1319,10 +1314,10 @@
       <c r="K22" s="13">
         <v>42111.5</v>
       </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="16"/>
-    </row>
-    <row r="23" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="L22" s="16"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="1:13" ht="24">
       <c r="A23" s="10" t="s">
         <v>20</v>
       </c>
@@ -1335,9 +1330,9 @@
       <c r="D23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -1346,10 +1341,10 @@
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="16"/>
-    </row>
-    <row r="24" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="L23" s="16"/>
+      <c r="M23" s="17"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="10" t="s">
         <v>21</v>
       </c>
@@ -1362,9 +1357,9 @@
       <c r="D24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
       <c r="H24" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -1373,10 +1368,10 @@
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="16"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L24" s="16"/>
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="10" t="s">
         <v>22</v>
       </c>
@@ -1389,9 +1384,9 @@
       <c r="D25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -1400,10 +1395,10 @@
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="16"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L25" s="16"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="10" t="s">
         <v>32</v>
       </c>
@@ -1416,9 +1411,9 @@
       <c r="D26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -1427,8 +1422,8 @@
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1440,7 +1435,7 @@
     <mergeCell ref="G4:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glorita\Documents\GitHub\CienciasSociales\seguimiento\ProduccionDigital\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22820" windowHeight="12860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22815" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
   <si>
     <t>Cuaderno de estudio</t>
   </si>
@@ -211,6 +216,27 @@
   </si>
   <si>
     <t>24/03/2015 06:08 p.m.</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Cambios DIAPORAMA</t>
+  </si>
+  <si>
+    <t>Cambio video audio latino / Video no carga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambio video audio latino </t>
+  </si>
+  <si>
+    <t>Pendiente Editora (Marcela Guevara)</t>
+  </si>
+  <si>
+    <t>OK / "Entregar a mano" por "Entregar por escrito"</t>
   </si>
 </sst>
 </file>
@@ -220,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,14 +315,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -394,9 +412,6 @@
     <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -405,6 +420,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -680,7 +698,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -688,26 +706,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K13" sqref="K13"/>
+      <selection pane="topRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
@@ -715,7 +734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="22">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -750,30 +769,33 @@
         <v>37</v>
       </c>
       <c r="L3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" ht="15">
-      <c r="A4" s="15" t="s">
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>42087.62777777778</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>42087.663194444445</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>62</v>
       </c>
       <c r="H4" s="13">
@@ -782,12 +804,19 @@
       <c r="I4" s="13">
         <v>42111.645833333336</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="J4" s="13">
+        <v>42136.708333333336</v>
+      </c>
+      <c r="K4" s="13">
+        <v>42136.708333333336</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -800,9 +829,9 @@
       <c r="D5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -815,10 +844,13 @@
       <c r="K5" s="13">
         <v>42111.5</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="L5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -831,9 +863,9 @@
       <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -846,10 +878,13 @@
       <c r="K6" s="13">
         <v>42111.5</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="L6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -862,21 +897,28 @@
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I7" s="13">
         <v>42100.460416666669</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="J7" s="13">
+        <v>42102.395833333336</v>
+      </c>
+      <c r="K7" s="13">
+        <v>42137.708333333336</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -889,9 +931,9 @@
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -904,10 +946,13 @@
       <c r="K8" s="13">
         <v>42111.5</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="L8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
@@ -920,21 +965,28 @@
       <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I9" s="13">
         <v>42100.460416666669</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="J9" s="13">
+        <v>42102.395833333336</v>
+      </c>
+      <c r="K9" s="13">
+        <v>42137.708333333336</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -947,9 +999,9 @@
       <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -962,10 +1014,13 @@
       <c r="K10" s="13">
         <v>42111.5</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="L10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -978,9 +1033,9 @@
       <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -990,13 +1045,16 @@
       <c r="J11" s="13">
         <v>42104.665277777778</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="17">
         <v>42111.5</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="L11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
@@ -1009,9 +1067,9 @@
       <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -1024,10 +1082,13 @@
       <c r="K12" s="13">
         <v>42111.5</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="L12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
@@ -1040,21 +1101,28 @@
       <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I13" s="13">
         <v>42100.460416666669</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="J13" s="13">
+        <v>42102.395833333336</v>
+      </c>
+      <c r="K13" s="13">
+        <v>42137.708333333336</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -1067,21 +1135,28 @@
       <c r="D14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I14" s="13">
         <v>42100.460416666669</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="17"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="J14" s="13">
+        <v>42102.395833333336</v>
+      </c>
+      <c r="K14" s="13">
+        <v>42137.708333333336</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="16"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
@@ -1094,9 +1169,9 @@
       <c r="D15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -1109,10 +1184,13 @@
       <c r="K15" s="13">
         <v>42111.5</v>
       </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="L15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
@@ -1125,21 +1203,28 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I16" s="13">
         <v>42100.460416666669</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="J16" s="13">
+        <v>42102.395833333336</v>
+      </c>
+      <c r="K16" s="13">
+        <v>42137.708333333336</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="15"/>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1152,21 +1237,28 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I17" s="13">
         <v>42100.460416666669</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="17"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="J17" s="13">
+        <v>42102.395833333336</v>
+      </c>
+      <c r="K17" s="13">
+        <v>42137.708333333336</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
@@ -1179,9 +1271,9 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -1194,10 +1286,13 @@
       <c r="K18" s="13">
         <v>42111.5</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="17"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="L18" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
@@ -1210,9 +1305,9 @@
       <c r="D19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -1225,10 +1320,13 @@
       <c r="K19" s="13">
         <v>42111.5</v>
       </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="17"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="L19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
@@ -1241,9 +1339,9 @@
       <c r="D20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -1256,10 +1354,13 @@
       <c r="K20" s="13">
         <v>42111.5</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="17"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="L20" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="16"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>18</v>
       </c>
@@ -1272,21 +1373,28 @@
       <c r="D21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I21" s="13">
         <v>42100.460416666669</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="17"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="J21" s="13">
+        <v>42102.395833333336</v>
+      </c>
+      <c r="K21" s="13">
+        <v>42137.708333333336</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" s="16"/>
+    </row>
+    <row r="22" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
@@ -1299,9 +1407,9 @@
       <c r="D22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="13">
         <v>42088.333333333336</v>
       </c>
@@ -1314,10 +1422,13 @@
       <c r="K22" s="13">
         <v>42111.5</v>
       </c>
-      <c r="L22" s="16"/>
-      <c r="M22" s="17"/>
-    </row>
-    <row r="23" spans="1:13" ht="24">
+      <c r="L22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="16"/>
+    </row>
+    <row r="23" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>20</v>
       </c>
@@ -1330,21 +1441,28 @@
       <c r="D23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
       <c r="H23" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I23" s="13">
         <v>42100.460416666669</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="17"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="J23" s="13">
+        <v>42102.395833333336</v>
+      </c>
+      <c r="K23" s="13">
+        <v>42137.708333333336</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="16"/>
+    </row>
+    <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>21</v>
       </c>
@@ -1357,21 +1475,28 @@
       <c r="D24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
       <c r="H24" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I24" s="13">
         <v>42100.460416666669</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="17"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="J24" s="13">
+        <v>42102.395833333336</v>
+      </c>
+      <c r="K24" s="13">
+        <v>42137.708333333336</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="16"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>22</v>
       </c>
@@ -1384,21 +1509,28 @@
       <c r="D25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
       <c r="H25" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I25" s="13">
         <v>42100.460416666669</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="17"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="J25" s="13">
+        <v>42102.395833333336</v>
+      </c>
+      <c r="K25" s="13">
+        <v>42137.708333333336</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="16"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>32</v>
       </c>
@@ -1411,31 +1543,34 @@
       <c r="D26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
       <c r="H26" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I26" s="13">
         <v>42100.460416666669</v>
       </c>
-      <c r="J26" s="9"/>
+      <c r="J26" s="13"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="17"/>
+      <c r="L26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="L4:L26"/>
     <mergeCell ref="M4:M26"/>
+    <mergeCell ref="N4:N26"/>
     <mergeCell ref="E4:E26"/>
     <mergeCell ref="F4:F26"/>
     <mergeCell ref="G4:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
   <si>
     <t>Cuaderno de estudio</t>
   </si>
@@ -224,19 +224,16 @@
     <t>OK</t>
   </si>
   <si>
-    <t>Cambios DIAPORAMA</t>
-  </si>
-  <si>
     <t>Cambio video audio latino / Video no carga</t>
   </si>
   <si>
     <t xml:space="preserve">Cambio video audio latino </t>
   </si>
   <si>
-    <t>Pendiente Editora (Marcela Guevara)</t>
-  </si>
-  <si>
     <t>OK / "Entregar a mano" por "Entregar por escrito"</t>
+  </si>
+  <si>
+    <t>OK / Estilo html</t>
   </si>
 </sst>
 </file>
@@ -246,7 +243,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +312,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -397,9 +402,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -412,6 +414,9 @@
     <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -421,7 +426,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -706,11 +711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K26" sqref="K26"/>
+      <selection pane="topRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,10 +732,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -798,29 +803,29 @@
       <c r="G4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I4" s="13">
+      <c r="H4" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I4" s="12">
         <v>42111.645833333336</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>42136.708333333336</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <v>42136.708333333336</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>64</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="16"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -832,29 +837,29 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I5" s="13">
-        <v>42100.460416666669</v>
-      </c>
-      <c r="J5" s="13">
+      <c r="H5" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I5" s="12">
+        <v>42100.460416666669</v>
+      </c>
+      <c r="J5" s="12">
         <v>42101.708333333336</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <v>42111.5</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>64</v>
       </c>
       <c r="M5" s="15"/>
       <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -866,29 +871,29 @@
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I6" s="13">
-        <v>42100.460416666669</v>
-      </c>
-      <c r="J6" s="13">
+      <c r="H6" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I6" s="12">
+        <v>42100.460416666669</v>
+      </c>
+      <c r="J6" s="12">
         <v>42101.729166666664</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <v>42111.5</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="12" t="s">
         <v>64</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -900,29 +905,29 @@
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I7" s="13">
-        <v>42100.460416666669</v>
-      </c>
-      <c r="J7" s="13">
+      <c r="H7" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I7" s="12">
+        <v>42100.460416666669</v>
+      </c>
+      <c r="J7" s="12">
         <v>42102.395833333336</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <v>42137.708333333336</v>
       </c>
-      <c r="L7" s="13" t="s">
-        <v>65</v>
+      <c r="L7" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="16"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -934,29 +939,29 @@
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I8" s="13">
-        <v>42100.460416666669</v>
-      </c>
-      <c r="J8" s="13">
+      <c r="H8" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I8" s="12">
+        <v>42100.460416666669</v>
+      </c>
+      <c r="J8" s="12">
         <v>42101.895833333336</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <v>42111.5</v>
       </c>
-      <c r="L8" s="13" t="s">
-        <v>66</v>
+      <c r="L8" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="16"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -968,29 +973,29 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I9" s="13">
-        <v>42100.460416666669</v>
-      </c>
-      <c r="J9" s="13">
+      <c r="H9" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I9" s="12">
+        <v>42100.460416666669</v>
+      </c>
+      <c r="J9" s="12">
         <v>42102.395833333336</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="12">
         <v>42137.708333333336</v>
       </c>
-      <c r="L9" s="13" t="s">
-        <v>65</v>
+      <c r="L9" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="16"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1002,29 +1007,29 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I10" s="13">
-        <v>42100.460416666669</v>
-      </c>
-      <c r="J10" s="13">
+      <c r="H10" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I10" s="12">
+        <v>42100.460416666669</v>
+      </c>
+      <c r="J10" s="12">
         <v>42101.909722222219</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <v>42111.5</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="12" t="s">
         <v>64</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="16"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1036,29 +1041,29 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I11" s="13">
-        <v>42100.460416666669</v>
-      </c>
-      <c r="J11" s="13">
+      <c r="H11" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I11" s="12">
+        <v>42100.460416666669</v>
+      </c>
+      <c r="J11" s="12">
         <v>42104.665277777778</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="13">
         <v>42111.5</v>
       </c>
-      <c r="L11" s="13" t="s">
-        <v>69</v>
+      <c r="L11" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1070,29 +1075,29 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I12" s="13">
-        <v>42100.460416666669</v>
-      </c>
-      <c r="J12" s="13">
+      <c r="H12" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I12" s="12">
+        <v>42100.460416666669</v>
+      </c>
+      <c r="J12" s="12">
         <v>42104.676388888889</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="12">
         <v>42111.5</v>
       </c>
-      <c r="L12" s="13" t="s">
-        <v>69</v>
+      <c r="L12" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1104,29 +1109,29 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I13" s="13">
-        <v>42100.460416666669</v>
-      </c>
-      <c r="J13" s="13">
+      <c r="H13" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I13" s="12">
+        <v>42100.460416666669</v>
+      </c>
+      <c r="J13" s="12">
         <v>42102.395833333336</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="12">
         <v>42137.708333333336</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="12" t="s">
         <v>64</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="16"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1138,29 +1143,29 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I14" s="13">
-        <v>42100.460416666669</v>
-      </c>
-      <c r="J14" s="13">
+      <c r="H14" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I14" s="12">
+        <v>42100.460416666669</v>
+      </c>
+      <c r="J14" s="12">
         <v>42102.395833333336</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="12">
         <v>42137.708333333336</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="12" t="s">
         <v>64</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="16"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1172,29 +1177,29 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I15" s="13">
-        <v>42100.460416666669</v>
-      </c>
-      <c r="J15" s="13">
+      <c r="H15" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I15" s="12">
+        <v>42100.460416666669</v>
+      </c>
+      <c r="J15" s="12">
         <v>42101.984027777777</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="12">
         <v>42111.5</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="12" t="s">
         <v>64</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1206,29 +1211,29 @@
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I16" s="13">
-        <v>42100.460416666669</v>
-      </c>
-      <c r="J16" s="13">
+      <c r="H16" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I16" s="12">
+        <v>42100.460416666669</v>
+      </c>
+      <c r="J16" s="12">
         <v>42102.395833333336</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="12">
         <v>42137.708333333336</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="12" t="s">
         <v>64</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="16"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1240,29 +1245,29 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I17" s="13">
-        <v>42100.460416666669</v>
-      </c>
-      <c r="J17" s="13">
+      <c r="H17" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I17" s="12">
+        <v>42100.460416666669</v>
+      </c>
+      <c r="J17" s="12">
         <v>42102.395833333336</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="12">
         <v>42137.708333333336</v>
       </c>
-      <c r="L17" s="13" t="s">
-        <v>67</v>
+      <c r="L17" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="M17" s="15"/>
       <c r="N17" s="16"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1274,29 +1279,29 @@
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I18" s="13">
-        <v>42100.460416666669</v>
-      </c>
-      <c r="J18" s="13">
+      <c r="H18" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I18" s="12">
+        <v>42100.460416666669</v>
+      </c>
+      <c r="J18" s="12">
         <v>42101.986111111109</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="12">
         <v>42111.5</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="12" t="s">
         <v>64</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1308,29 +1313,29 @@
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I19" s="13">
-        <v>42100.460416666669</v>
-      </c>
-      <c r="J19" s="13">
+      <c r="H19" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I19" s="12">
+        <v>42100.460416666669</v>
+      </c>
+      <c r="J19" s="12">
         <v>42104.677083333336</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="12">
         <v>42111.5</v>
       </c>
-      <c r="L19" s="13" t="s">
-        <v>69</v>
+      <c r="L19" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="16"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -1342,29 +1347,29 @@
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I20" s="13">
-        <v>42100.460416666669</v>
-      </c>
-      <c r="J20" s="13">
+      <c r="H20" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I20" s="12">
+        <v>42100.460416666669</v>
+      </c>
+      <c r="J20" s="12">
         <v>42101.996527777781</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="12">
         <v>42111.5</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="12" t="s">
         <v>64</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="16"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -1376,29 +1381,29 @@
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I21" s="13">
-        <v>42100.460416666669</v>
-      </c>
-      <c r="J21" s="13">
+      <c r="H21" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I21" s="12">
+        <v>42100.460416666669</v>
+      </c>
+      <c r="J21" s="12">
         <v>42102.395833333336</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="12">
         <v>42137.708333333336</v>
       </c>
-      <c r="L21" s="13" t="s">
-        <v>67</v>
+      <c r="L21" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="16"/>
     </row>
     <row r="22" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1410,29 +1415,29 @@
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I22" s="13">
-        <v>42100.460416666669</v>
-      </c>
-      <c r="J22" s="13">
+      <c r="H22" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I22" s="12">
+        <v>42100.460416666669</v>
+      </c>
+      <c r="J22" s="12">
         <v>42104.677083333336</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="12">
         <v>42111.5</v>
       </c>
-      <c r="L22" s="13" t="s">
-        <v>69</v>
+      <c r="L22" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="M22" s="15"/>
       <c r="N22" s="16"/>
     </row>
     <row r="23" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -1444,29 +1449,29 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I23" s="13">
-        <v>42100.460416666669</v>
-      </c>
-      <c r="J23" s="13">
+      <c r="H23" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I23" s="12">
+        <v>42100.460416666669</v>
+      </c>
+      <c r="J23" s="12">
         <v>42102.395833333336</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="12">
         <v>42137.708333333336</v>
       </c>
-      <c r="L23" s="13" t="s">
-        <v>69</v>
+      <c r="L23" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="M23" s="15"/>
       <c r="N23" s="16"/>
     </row>
     <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -1478,29 +1483,29 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
-      <c r="H24" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I24" s="13">
-        <v>42100.460416666669</v>
-      </c>
-      <c r="J24" s="13">
+      <c r="H24" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I24" s="12">
+        <v>42100.460416666669</v>
+      </c>
+      <c r="J24" s="12">
         <v>42102.395833333336</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="12">
         <v>42137.708333333336</v>
       </c>
-      <c r="L24" s="13" t="s">
-        <v>69</v>
+      <c r="L24" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="M24" s="15"/>
       <c r="N24" s="16"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -1512,29 +1517,29 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I25" s="13">
-        <v>42100.460416666669</v>
-      </c>
-      <c r="J25" s="13">
+      <c r="H25" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I25" s="12">
+        <v>42100.460416666669</v>
+      </c>
+      <c r="J25" s="12">
         <v>42102.395833333336</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="12">
         <v>42137.708333333336</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="12" t="s">
         <v>64</v>
       </c>
       <c r="M25" s="15"/>
       <c r="N25" s="16"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -1546,19 +1551,26 @@
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="13">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I26" s="13">
-        <v>42100.460416666669</v>
-      </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="13" t="s">
+      <c r="H26" s="12">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I26" s="12">
+        <v>42100.460416666669</v>
+      </c>
+      <c r="J26" s="12">
+        <v>42102.395833333336</v>
+      </c>
+      <c r="K26" s="12">
+        <v>42138.704861111109</v>
+      </c>
+      <c r="L26" s="12" t="s">
         <v>68</v>
       </c>
       <c r="M26" s="15"/>
       <c r="N26" s="16"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glorita\Documents\GitHub\CienciasSociales\seguimiento\ProduccionDigital\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22815" windowHeight="12855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22820" windowHeight="12860"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -230,10 +225,10 @@
     <t xml:space="preserve">Cambio video audio latino </t>
   </si>
   <si>
-    <t>OK / "Entregar a mano" por "Entregar por escrito"</t>
-  </si>
-  <si>
     <t>OK / Estilo html</t>
+  </si>
+  <si>
+    <t>"Entregar a mano" por "Entregar por escrito"</t>
   </si>
 </sst>
 </file>
@@ -417,6 +412,9 @@
     <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -425,9 +423,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -703,7 +698,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -714,24 +709,24 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P20" sqref="P20"/>
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.85546875" style="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="18">
       <c r="A1" s="11" t="s">
         <v>29</v>
       </c>
@@ -739,7 +734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="22">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -785,22 +780,22 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:16" ht="15">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="17">
         <v>42087.62777777778</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="17">
         <v>42087.663194444445</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="17" t="s">
         <v>62</v>
       </c>
       <c r="H4" s="12">
@@ -818,10 +813,10 @@
       <c r="L4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="16"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M4" s="16"/>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -834,9 +829,9 @@
       <c r="D5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="12">
         <v>42088.333333333336</v>
       </c>
@@ -852,10 +847,10 @@
       <c r="L5" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M5" s="16"/>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -868,9 +863,9 @@
       <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="12">
         <v>42088.333333333336</v>
       </c>
@@ -886,10 +881,10 @@
       <c r="L6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="16"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M6" s="16"/>
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -902,9 +897,9 @@
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="12">
         <v>42088.333333333336</v>
       </c>
@@ -920,10 +915,10 @@
       <c r="L7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M7" s="16"/>
+      <c r="N7" s="17"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -936,9 +931,9 @@
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="12">
         <v>42088.333333333336</v>
       </c>
@@ -954,10 +949,10 @@
       <c r="L8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M8" s="16"/>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
@@ -970,9 +965,9 @@
       <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="12">
         <v>42088.333333333336</v>
       </c>
@@ -988,10 +983,10 @@
       <c r="L9" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="16"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M9" s="16"/>
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
@@ -1004,9 +999,9 @@
       <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="12">
         <v>42088.333333333336</v>
       </c>
@@ -1022,10 +1017,10 @@
       <c r="L10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="16"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M10" s="16"/>
+      <c r="N10" s="17"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
@@ -1038,9 +1033,9 @@
       <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="12">
         <v>42088.333333333336</v>
       </c>
@@ -1054,12 +1049,12 @@
         <v>42111.5</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="16"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
@@ -1072,9 +1067,9 @@
       <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="12">
         <v>42088.333333333336</v>
       </c>
@@ -1088,12 +1083,12 @@
         <v>42111.5</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="16"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="M12" s="16"/>
+      <c r="N12" s="17"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -1106,9 +1101,9 @@
       <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="12">
         <v>42088.333333333336</v>
       </c>
@@ -1124,10 +1119,10 @@
       <c r="L13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="16"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M13" s="16"/>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -1140,9 +1135,9 @@
       <c r="D14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="12">
         <v>42088.333333333336</v>
       </c>
@@ -1158,10 +1153,10 @@
       <c r="L14" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="16"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M14" s="16"/>
+      <c r="N14" s="17"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
@@ -1174,9 +1169,9 @@
       <c r="D15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="12">
         <v>42088.333333333336</v>
       </c>
@@ -1192,10 +1187,10 @@
       <c r="L15" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="16"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M15" s="16"/>
+      <c r="N15" s="17"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
@@ -1208,9 +1203,9 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="12">
         <v>42088.333333333336</v>
       </c>
@@ -1226,10 +1221,10 @@
       <c r="L16" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="16"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M16" s="16"/>
+      <c r="N16" s="17"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
@@ -1242,9 +1237,9 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="12">
         <v>42088.333333333336</v>
       </c>
@@ -1260,10 +1255,10 @@
       <c r="L17" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="16"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M17" s="16"/>
+      <c r="N17" s="17"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
@@ -1276,9 +1271,9 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="12">
         <v>42088.333333333336</v>
       </c>
@@ -1294,10 +1289,10 @@
       <c r="L18" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="16"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M18" s="16"/>
+      <c r="N18" s="17"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
@@ -1310,9 +1305,9 @@
       <c r="D19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="12">
         <v>42088.333333333336</v>
       </c>
@@ -1326,12 +1321,12 @@
         <v>42111.5</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="16"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="M19" s="16"/>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="9" t="s">
         <v>17</v>
       </c>
@@ -1344,9 +1339,9 @@
       <c r="D20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="12">
         <v>42088.333333333336</v>
       </c>
@@ -1362,10 +1357,10 @@
       <c r="L20" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M20" s="16"/>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="9" t="s">
         <v>18</v>
       </c>
@@ -1378,9 +1373,9 @@
       <c r="D21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="12">
         <v>42088.333333333336</v>
       </c>
@@ -1396,10 +1391,10 @@
       <c r="L21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="16"/>
-    </row>
-    <row r="22" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="M21" s="16"/>
+      <c r="N21" s="17"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
@@ -1412,9 +1407,9 @@
       <c r="D22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="12">
         <v>42088.333333333336</v>
       </c>
@@ -1428,12 +1423,12 @@
         <v>42111.5</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="16"/>
-    </row>
-    <row r="23" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="M22" s="16"/>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" spans="1:14" ht="24">
       <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
@@ -1446,9 +1441,9 @@
       <c r="D23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="12">
         <v>42088.333333333336</v>
       </c>
@@ -1462,12 +1457,12 @@
         <v>42137.708333333336</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="16"/>
-    </row>
-    <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="M23" s="16"/>
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="9" t="s">
         <v>21</v>
       </c>
@@ -1480,9 +1475,9 @@
       <c r="D24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
       <c r="H24" s="12">
         <v>42088.333333333336</v>
       </c>
@@ -1496,12 +1491,12 @@
         <v>42137.708333333336</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="M24" s="15"/>
-      <c r="N24" s="16"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="M24" s="16"/>
+      <c r="N24" s="17"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="9" t="s">
         <v>22</v>
       </c>
@@ -1514,9 +1509,9 @@
       <c r="D25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="12">
         <v>42088.333333333336</v>
       </c>
@@ -1532,10 +1527,10 @@
       <c r="L25" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M25" s="15"/>
-      <c r="N25" s="16"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M25" s="16"/>
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="9" t="s">
         <v>32</v>
       </c>
@@ -1548,9 +1543,9 @@
       <c r="D26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="12">
         <v>42088.333333333336</v>
       </c>
@@ -1564,13 +1559,13 @@
         <v>42138.704861111109</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M26" s="15"/>
-      <c r="N26" s="16"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L28" s="17"/>
+        <v>67</v>
+      </c>
+      <c r="M26" s="16"/>
+      <c r="N26" s="17"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="L28" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1582,7 +1577,7 @@
     <mergeCell ref="G4:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_06_01_CO.xlsx
@@ -366,8 +366,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -425,9 +427,11 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -698,7 +702,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -709,8 +713,8 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L26" sqref="L26"/>
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -813,7 +817,9 @@
       <c r="L4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="16"/>
+      <c r="M4" s="16">
+        <v>42151.436111111114</v>
+      </c>
       <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:16">
